--- a/Results_Dir.xlsx
+++ b/Results_Dir.xlsx
@@ -24,15 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>C:\Users\anjuli\Documents\MATLAB\cobratoolbox\CHO\IMM_q_calculation_yields_DMFA_S.xlsx</t>
   </si>
   <si>
-    <t>Data1</t>
+    <t>IMM_q_calculation_yields_DMFA_S</t>
   </si>
   <si>
-    <t>IMM_q_calculation_yields_DMFA_S</t>
+    <t>Data1</t>
   </si>
 </sst>
 </file>
@@ -350,29 +353,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.21875" customWidth="1"/>
+    <col min="1" max="1" width="83.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>